--- a/15a.xlsx
+++ b/15a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA49CE8-A8FE-4926-B97C-92BDAC2836E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DC7570-6506-4DD6-9C5F-8068CE3D2BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6818" yWindow="2625" windowWidth="28800" windowHeight="16200" xr2:uid="{43A727E7-E0DD-4276-BE22-A0C497C034AF}"/>
+    <workbookView xWindow="4500" yWindow="1500" windowWidth="28800" windowHeight="16200" activeTab="1" xr2:uid="{43A727E7-E0DD-4276-BE22-A0C497C034AF}"/>
   </bookViews>
   <sheets>
     <sheet name="中古車価格" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7740" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7741" uniqueCount="231">
   <si>
     <t>メーカー</t>
   </si>
@@ -705,20 +705,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>標準誤差</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゴサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R^2, SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>予測値</t>
     <rPh sb="0" eb="2">
       <t>ヨソク</t>
@@ -1110,6 +1096,56 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>係数の標準誤差</t>
+    <rPh sb="0" eb="2">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゴサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 標準誤差</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゴサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1122,7 +1158,7 @@
     <numFmt numFmtId="179" formatCode="#,##0.00000000_ ;[Red]\-#,##0.00000000\ "/>
     <numFmt numFmtId="180" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1148,6 +1184,16 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -1255,7 +1301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1359,9 +1405,6 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
@@ -3806,7 +3849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CC015B-A697-429A-8F6D-46EC0D99698E}">
   <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -4213,10 +4256,10 @@
         <v>120</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.7">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -4245,7 +4288,7 @@
         <v>100</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.7">
@@ -4277,7 +4320,7 @@
         <v>240</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.7">
@@ -4309,7 +4352,7 @@
         <v>80</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -4416,7 +4459,7 @@
         <v>120</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L17" s="19">
         <v>2018</v>
@@ -4486,11 +4529,11 @@
       <c r="I19" s="2">
         <v>150</v>
       </c>
-      <c r="K19" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="L19" s="42" t="s">
-        <v>209</v>
+      <c r="K19" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="L19" s="41" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.7">
@@ -4552,8 +4595,8 @@
       <c r="I21" s="2">
         <v>170</v>
       </c>
-      <c r="K21" s="43" t="s">
-        <v>206</v>
+      <c r="K21" s="42" t="s">
+        <v>204</v>
       </c>
       <c r="L21" s="29"/>
     </row>
@@ -4585,7 +4628,7 @@
       <c r="I22" s="2">
         <v>300</v>
       </c>
-      <c r="K22" s="39"/>
+      <c r="K22" s="38"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A23" t="s">
@@ -4645,7 +4688,7 @@
         <v>100</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L24" s="29"/>
     </row>
@@ -4677,7 +4720,7 @@
       <c r="I25" s="2">
         <v>75</v>
       </c>
-      <c r="K25" s="40"/>
+      <c r="K25" s="39"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A26" t="s">
@@ -8809,7 +8852,7 @@
   <dimension ref="A1:T167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -8861,7 +8904,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
-      <c r="Q1" s="38"/>
+      <c r="Q1" s="37"/>
       <c r="R1" s="4" t="s">
         <v>3</v>
       </c>
@@ -8917,7 +8960,7 @@
         <v>181</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R2">
         <f ca="1">AVERAGE(INDIRECT(R1))</f>
@@ -8946,11 +8989,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <f ca="1"/>
         <v>-0.30424614818568679</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -8983,7 +9026,7 @@
         <v>-0.27882362237771718</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R3" s="1" cm="1">
         <f t="array" aca="1" ref="R3" ca="1">_xlfn.STDEV.P(INDIRECT(R1:T1))</f>
@@ -9012,11 +9055,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="35">
         <f ca="1"/>
         <v>-0.87107960047327371</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -9063,11 +9106,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <f ca="1"/>
         <v>0.12087894103000338</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <f ca="1"/>
         <v>0.73692980470469283</v>
       </c>
@@ -9114,11 +9157,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <f ca="1"/>
         <v>-0.44595451125758351</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <f ca="1"/>
         <v>0.73692980470469283</v>
       </c>
@@ -9165,11 +9208,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <f ca="1"/>
         <v>-0.30424614818568679</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <f ca="1"/>
         <v>0.73692980470469283</v>
       </c>
@@ -9197,11 +9240,11 @@
         <f ca="1"/>
         <v>-2.1626425449095482E-3</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <f ca="1"/>
         <v>0.54600403024569355</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="35">
         <f ca="1"/>
         <v>-0.23463137445945381</v>
       </c>
@@ -9236,11 +9279,11 @@
         <f ca="1"/>
         <v>1.7008459181341512E-4</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <f ca="1"/>
         <v>-1.0127879635451704</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <f ca="1"/>
         <v>1.276686015351441</v>
       </c>
@@ -9281,11 +9324,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <f ca="1"/>
         <v>-0.58766287432948028</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <f ca="1"/>
         <v>-0.88233882723555157</v>
       </c>
@@ -9332,11 +9375,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <f ca="1"/>
         <v>-0.30424614818568679</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -9350,7 +9393,7 @@
         <v>120</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="L11">
         <f ca="1"/>
@@ -9369,7 +9412,7 @@
         <v>4.6226730485680516</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:20" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -9383,11 +9426,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="35">
         <f ca="1"/>
         <v>0.40429566717379684</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="35">
         <f ca="1"/>
         <v>-0.4505338587181531</v>
       </c>
@@ -9401,7 +9444,7 @@
         <v>100</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="L12">
         <f ca="1"/>
@@ -9434,11 +9477,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="35">
         <f ca="1"/>
         <v>-2.0829422041893343E-2</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -9452,7 +9495,7 @@
         <v>240</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L13">
         <f ca="1"/>
@@ -9485,11 +9528,11 @@
         <f ca="1"/>
         <v>-3.1012575145461056E-5</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="35">
         <f ca="1"/>
         <v>0.40429566717379684</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="35">
         <f ca="1"/>
         <v>-0.55848510084750269</v>
       </c>
@@ -9503,7 +9546,7 @@
         <v>80</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L14" s="1">
         <f ca="1"/>
@@ -9536,11 +9579,11 @@
         <f ca="1"/>
         <v>-7.1232008537236292E-5</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <f ca="1"/>
         <v>0.82942075638948698</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="35">
         <f ca="1"/>
         <v>-0.88233882723555157</v>
       </c>
@@ -9568,11 +9611,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="35">
         <f ca="1"/>
         <v>0.12087894103000338</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="35">
         <f ca="1"/>
         <v>-0.55848510084750269</v>
       </c>
@@ -9613,11 +9656,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="35">
         <f ca="1"/>
         <v>-0.30424614818568679</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="35">
         <f ca="1"/>
         <v>-0.23463137445945381</v>
       </c>
@@ -9631,7 +9674,7 @@
         <v>120</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L17">
         <v>2018</v>
@@ -9657,11 +9700,11 @@
         <f ca="1"/>
         <v>-3.1012575145461056E-5</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="35">
         <f ca="1"/>
         <v>0.54600403024569355</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="35">
         <f ca="1"/>
         <v>-0.66643634297685239</v>
       </c>
@@ -9675,7 +9718,7 @@
         <v>28</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L18" s="1" cm="1">
         <f t="array" aca="1" ref="L18:N18" ca="1">STANDARDIZE(L17:N17,R2:T2,R3:T3)</f>
@@ -9708,11 +9751,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="35">
         <f ca="1"/>
         <v>-2.0829422041893343E-2</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="35">
         <f ca="1"/>
         <v>-0.23463137445945381</v>
       </c>
@@ -9740,11 +9783,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="35">
         <f ca="1"/>
         <v>-0.75771291001575636</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -9772,11 +9815,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="35">
         <f ca="1"/>
         <v>0.26258730410190012</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -9804,11 +9847,11 @@
         <f ca="1"/>
         <v>-1.237595576898718E-3</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="35">
         <f ca="1"/>
         <v>0.82942075638948698</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="35">
         <f ca="1"/>
         <v>1.4925884996101402</v>
       </c>
@@ -9836,11 +9879,11 @@
         <f ca="1"/>
         <v>-2.3210974210433722E-4</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="35">
         <f ca="1"/>
         <v>1.9630876609646608</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="35">
         <f ca="1"/>
         <v>-0.55848510084750269</v>
       </c>
@@ -9868,11 +9911,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="35">
         <f ca="1"/>
         <v>0.54600403024569355</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="35">
         <f ca="1"/>
         <v>-0.23463137445945381</v>
       </c>
@@ -9900,11 +9943,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="35">
         <f ca="1"/>
         <v>-0.75771291001575636</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -9932,11 +9975,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="35">
         <f ca="1"/>
         <v>-0.6443462195582389</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -9964,11 +10007,11 @@
         <f ca="1"/>
         <v>-1.1145144192901152E-4</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="35">
         <f ca="1"/>
         <v>1.1128374825332805</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="35">
         <f ca="1"/>
         <v>-1.872889020075456E-2</v>
       </c>
@@ -9996,11 +10039,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="35">
         <f ca="1"/>
         <v>-0.30424614818568679</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="35">
         <f ca="1"/>
         <v>-0.34258261658880346</v>
       </c>
@@ -10028,11 +10071,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="35">
         <f ca="1"/>
         <v>0.26258730410190012</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="35">
         <f ca="1"/>
         <v>2.0323447102568886</v>
       </c>
@@ -10060,11 +10103,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="35">
         <f ca="1"/>
         <v>-0.81439625524451498</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -10092,11 +10135,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="35">
         <f ca="1"/>
         <v>-0.4176128386432042</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="35">
         <f ca="1"/>
         <v>0.73692980470469283</v>
       </c>
@@ -10124,11 +10167,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="35">
         <f ca="1"/>
         <v>-7.7512767270652039E-2</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="35">
         <f ca="1"/>
         <v>-0.55848510084750269</v>
       </c>
@@ -10156,11 +10199,11 @@
         <f ca="1"/>
         <v>-3.125486088878877E-4</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="35">
         <f ca="1"/>
         <v>2.8133378393960413</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="35">
         <f ca="1"/>
         <v>-0.55848510084750269</v>
       </c>
@@ -10188,11 +10231,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="35">
         <f ca="1"/>
         <v>-0.58766287432948028</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="35">
         <f ca="1"/>
         <v>1.8164422259981892</v>
       </c>
@@ -10220,11 +10263,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="35">
         <f ca="1"/>
         <v>-0.30424614818568679</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -10252,11 +10295,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="35">
         <f ca="1"/>
         <v>0.26258730410190012</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="35">
         <f ca="1"/>
         <v>0.73692980470469283</v>
       </c>
@@ -10284,11 +10327,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="35">
         <f ca="1"/>
         <v>-0.92776294570203244</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -10316,11 +10359,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="35">
         <f ca="1"/>
         <v>0.54600403024569355</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="35">
         <f ca="1"/>
         <v>-0.23463137445945381</v>
       </c>
@@ -10348,11 +10391,11 @@
         <f ca="1"/>
         <v>-1.5167087532078676E-4</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="35">
         <f ca="1"/>
         <v>1.3962542086770739</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -10380,11 +10423,11 @@
         <f ca="1"/>
         <v>1.7008459181341512E-4</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="35">
         <f ca="1"/>
         <v>-0.87107960047327371</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="35">
         <f ca="1"/>
         <v>-1.872889020075456E-2</v>
       </c>
@@ -10412,11 +10455,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="35">
         <f ca="1"/>
         <v>0.20590395887314142</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -10444,11 +10487,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="35">
         <f ca="1"/>
         <v>-0.58766287432948028</v>
       </c>
-      <c r="F42" s="36">
+      <c r="F42" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -10476,11 +10519,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="35">
         <f ca="1"/>
         <v>-0.30424614818568679</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43" s="35">
         <f ca="1"/>
         <v>-0.23463137445945381</v>
       </c>
@@ -10508,11 +10551,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="35">
         <f ca="1"/>
         <v>-0.72937123740137699</v>
       </c>
-      <c r="F44" s="36">
+      <c r="F44" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -10540,11 +10583,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="35">
         <f ca="1"/>
         <v>-2.0829422041893343E-2</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="35">
         <f ca="1"/>
         <v>-1.872889020075456E-2</v>
       </c>
@@ -10572,11 +10615,11 @@
         <f ca="1"/>
         <v>-3.5276804227966289E-4</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46" s="35">
         <f ca="1"/>
         <v>3.6635880178274216</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="35">
         <f ca="1"/>
         <v>-0.66643634297685239</v>
       </c>
@@ -10604,11 +10647,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E47" s="36">
+      <c r="E47" s="35">
         <f ca="1"/>
         <v>-0.16253778511379008</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="35">
         <f ca="1"/>
         <v>-1.872889020075456E-2</v>
       </c>
@@ -10636,11 +10679,11 @@
         <f ca="1"/>
         <v>-1.5167087532078676E-4</v>
       </c>
-      <c r="E48" s="36">
+      <c r="E48" s="35">
         <f ca="1"/>
         <v>1.3962542086770739</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48" s="35">
         <f ca="1"/>
         <v>-0.34258261658880346</v>
       </c>
@@ -10668,11 +10711,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E49" s="36">
+      <c r="E49" s="35">
         <f ca="1"/>
         <v>-0.53097952910072155</v>
       </c>
-      <c r="F49" s="36">
+      <c r="F49" s="35">
         <f ca="1"/>
         <v>1.276686015351441</v>
       </c>
@@ -10700,11 +10743,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E50" s="36">
+      <c r="E50" s="35">
         <f ca="1"/>
         <v>-0.81439625524451498</v>
       </c>
-      <c r="F50" s="36">
+      <c r="F50" s="35">
         <f ca="1"/>
         <v>1.276686015351441</v>
       </c>
@@ -10732,11 +10775,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E51" s="36">
+      <c r="E51" s="35">
         <f ca="1"/>
         <v>0.12087894103000338</v>
       </c>
-      <c r="F51" s="36">
+      <c r="F51" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -10764,11 +10807,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E52" s="36">
+      <c r="E52" s="35">
         <f ca="1"/>
         <v>-0.30424614818568679</v>
       </c>
-      <c r="F52" s="36">
+      <c r="F52" s="35">
         <f ca="1"/>
         <v>1.8164422259981892</v>
       </c>
@@ -10796,11 +10839,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E53" s="36">
+      <c r="E53" s="35">
         <f ca="1"/>
         <v>-0.44595451125758351</v>
       </c>
-      <c r="F53" s="36">
+      <c r="F53" s="35">
         <f ca="1"/>
         <v>-0.66643634297685239</v>
       </c>
@@ -10828,11 +10871,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E54" s="36">
+      <c r="E54" s="35">
         <f ca="1"/>
         <v>-0.72937123740137699</v>
       </c>
-      <c r="F54" s="36">
+      <c r="F54" s="35">
         <f ca="1"/>
         <v>-0.55848510084750269</v>
       </c>
@@ -10860,11 +10903,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E55" s="36">
+      <c r="E55" s="35">
         <f ca="1"/>
         <v>-0.72937123740137699</v>
       </c>
-      <c r="F55" s="36">
+      <c r="F55" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -10892,11 +10935,11 @@
         <f ca="1"/>
         <v>-3.1012575145461056E-5</v>
       </c>
-      <c r="E56" s="36">
+      <c r="E56" s="35">
         <f ca="1"/>
         <v>0.54600403024569355</v>
       </c>
-      <c r="F56" s="36">
+      <c r="F56" s="35">
         <f ca="1"/>
         <v>-0.34258261658880346</v>
       </c>
@@ -10924,11 +10967,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E57" s="36">
+      <c r="E57" s="35">
         <f ca="1"/>
         <v>-0.70102956478699763</v>
       </c>
-      <c r="F57" s="36">
+      <c r="F57" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -10956,11 +10999,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E58" s="36">
+      <c r="E58" s="35">
         <f ca="1"/>
         <v>-0.72937123740137699</v>
       </c>
-      <c r="F58" s="36">
+      <c r="F58" s="35">
         <f ca="1"/>
         <v>-1.872889020075456E-2</v>
       </c>
@@ -10988,11 +11031,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E59" s="36">
+      <c r="E59" s="35">
         <f ca="1"/>
         <v>-0.6443462195582389</v>
       </c>
-      <c r="F59" s="36">
+      <c r="F59" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -11020,11 +11063,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E60" s="36">
+      <c r="E60" s="35">
         <f ca="1"/>
         <v>-7.7512767270652039E-2</v>
       </c>
-      <c r="F60" s="36">
+      <c r="F60" s="35">
         <f ca="1"/>
         <v>0.73692980470469283</v>
       </c>
@@ -11052,11 +11095,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E61" s="36">
+      <c r="E61" s="35">
         <f ca="1"/>
         <v>-0.30424614818568679</v>
       </c>
-      <c r="F61" s="36">
+      <c r="F61" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -11084,11 +11127,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E62" s="36">
+      <c r="E62" s="35">
         <f ca="1"/>
         <v>-0.72937123740137699</v>
       </c>
-      <c r="F62" s="36">
+      <c r="F62" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -11116,11 +11159,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E63" s="36">
+      <c r="E63" s="35">
         <f ca="1"/>
         <v>-0.36092949341444547</v>
       </c>
-      <c r="F63" s="36">
+      <c r="F63" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -11148,11 +11191,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E64" s="36">
+      <c r="E64" s="35">
         <f ca="1"/>
         <v>-0.87107960047327371</v>
       </c>
-      <c r="F64" s="36">
+      <c r="F64" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -11180,11 +11223,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E65" s="36">
+      <c r="E65" s="35">
         <f ca="1"/>
         <v>-0.30424614818568679</v>
       </c>
-      <c r="F65" s="36">
+      <c r="F65" s="35">
         <f ca="1"/>
         <v>-0.34258261658880346</v>
       </c>
@@ -11212,11 +11255,11 @@
         <f ca="1"/>
         <v>-1.9189030871256198E-4</v>
       </c>
-      <c r="E66" s="36">
+      <c r="E66" s="35">
         <f ca="1"/>
         <v>1.6796709348208674</v>
       </c>
-      <c r="F66" s="36">
+      <c r="F66" s="35">
         <f ca="1"/>
         <v>-0.34258261658880346</v>
       </c>
@@ -11244,11 +11287,11 @@
         <f ca="1"/>
         <v>1.7008459181341512E-4</v>
       </c>
-      <c r="E67" s="36">
+      <c r="E67" s="35">
         <f ca="1"/>
         <v>-1.0127879635451704</v>
       </c>
-      <c r="F67" s="36">
+      <c r="F67" s="35">
         <f ca="1"/>
         <v>1.8164422259981892</v>
       </c>
@@ -11276,11 +11319,11 @@
         <f ca="1"/>
         <v>-3.1012575145461056E-5</v>
       </c>
-      <c r="E68" s="36">
+      <c r="E68" s="35">
         <f ca="1"/>
         <v>0.68771239331759026</v>
       </c>
-      <c r="F68" s="36">
+      <c r="F68" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -11308,11 +11351,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E69" s="36">
+      <c r="E69" s="35">
         <f ca="1"/>
         <v>3.5853923186865345E-2</v>
       </c>
-      <c r="F69" s="36">
+      <c r="F69" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -11340,11 +11383,11 @@
         <f ca="1"/>
         <v>-2.3210974210433722E-4</v>
       </c>
-      <c r="E70" s="36">
+      <c r="E70" s="35">
         <f ca="1"/>
         <v>1.9630876609646608</v>
       </c>
-      <c r="F70" s="36">
+      <c r="F70" s="35">
         <f ca="1"/>
         <v>-0.23463137445945381</v>
       </c>
@@ -11372,11 +11415,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E71" s="36">
+      <c r="E71" s="35">
         <f ca="1"/>
         <v>-0.58766287432948028</v>
       </c>
-      <c r="F71" s="36">
+      <c r="F71" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -11404,11 +11447,11 @@
         <f ca="1"/>
         <v>1.7008459181341512E-4</v>
       </c>
-      <c r="E72" s="36">
+      <c r="E72" s="35">
         <f ca="1"/>
         <v>-1.0127879635451704</v>
       </c>
-      <c r="F72" s="36">
+      <c r="F72" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -11436,11 +11479,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E73" s="36">
+      <c r="E73" s="35">
         <f ca="1"/>
         <v>-2.0829422041893343E-2</v>
       </c>
-      <c r="F73" s="36">
+      <c r="F73" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -11468,11 +11511,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E74" s="36">
+      <c r="E74" s="35">
         <f ca="1"/>
         <v>-0.44595451125758351</v>
       </c>
-      <c r="F74" s="36">
+      <c r="F74" s="35">
         <f ca="1"/>
         <v>-0.66643634297685239</v>
       </c>
@@ -11500,11 +11543,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E75" s="36">
+      <c r="E75" s="35">
         <f ca="1"/>
         <v>-0.53097952910072155</v>
       </c>
-      <c r="F75" s="36">
+      <c r="F75" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -11532,11 +11575,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E76" s="36">
+      <c r="E76" s="35">
         <f ca="1"/>
         <v>-0.84273792785889434</v>
       </c>
-      <c r="F76" s="36">
+      <c r="F76" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -11564,11 +11607,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E77" s="36">
+      <c r="E77" s="35">
         <f ca="1"/>
         <v>0.40429566717379684</v>
       </c>
-      <c r="F77" s="36">
+      <c r="F77" s="35">
         <f ca="1"/>
         <v>-0.34258261658880346</v>
       </c>
@@ -11596,11 +11639,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E78" s="36">
+      <c r="E78" s="35">
         <f ca="1"/>
         <v>-0.72937123740137699</v>
       </c>
-      <c r="F78" s="36">
+      <c r="F78" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -11628,11 +11671,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E79" s="36">
+      <c r="E79" s="35">
         <f ca="1"/>
         <v>-0.16253778511379008</v>
       </c>
-      <c r="F79" s="36">
+      <c r="F79" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -11660,11 +11703,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E80" s="36">
+      <c r="E80" s="35">
         <f ca="1"/>
         <v>-0.87107960047327371</v>
       </c>
-      <c r="F80" s="36">
+      <c r="F80" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -11692,11 +11735,11 @@
         <f ca="1"/>
         <v>-3.125486088878877E-4</v>
       </c>
-      <c r="E81" s="36">
+      <c r="E81" s="35">
         <f ca="1"/>
         <v>2.8133378393960413</v>
       </c>
-      <c r="F81" s="36">
+      <c r="F81" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -11724,11 +11767,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E82" s="36">
+      <c r="E82" s="35">
         <f ca="1"/>
         <v>-0.4176128386432042</v>
       </c>
-      <c r="F82" s="36">
+      <c r="F82" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -11756,11 +11799,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E83" s="36">
+      <c r="E83" s="35">
         <f ca="1"/>
         <v>0.12087894103000338</v>
       </c>
-      <c r="F83" s="36">
+      <c r="F83" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -11788,11 +11831,11 @@
         <f ca="1"/>
         <v>-3.1012575145461056E-5</v>
       </c>
-      <c r="E84" s="36">
+      <c r="E84" s="35">
         <f ca="1"/>
         <v>0.54600403024569355</v>
       </c>
-      <c r="F84" s="36">
+      <c r="F84" s="35">
         <f ca="1"/>
         <v>-0.34258261658880346</v>
       </c>
@@ -11820,11 +11863,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E85" s="36">
+      <c r="E85" s="35">
         <f ca="1"/>
         <v>-0.72937123740137699</v>
       </c>
-      <c r="F85" s="36">
+      <c r="F85" s="35">
         <f ca="1"/>
         <v>-1.872889020075456E-2</v>
       </c>
@@ -11852,11 +11895,11 @@
         <f ca="1"/>
         <v>-4.3320690906321338E-4</v>
       </c>
-      <c r="E86" s="36">
+      <c r="E86" s="35">
         <f ca="1"/>
         <v>3.6635880178274216</v>
       </c>
-      <c r="F86" s="36">
+      <c r="F86" s="35">
         <f ca="1"/>
         <v>1.8164422259981892</v>
       </c>
@@ -11884,11 +11927,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E87" s="36">
+      <c r="E87" s="35">
         <f ca="1"/>
         <v>-0.72937123740137699</v>
       </c>
-      <c r="F87" s="36">
+      <c r="F87" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -11916,11 +11959,11 @@
         <f ca="1"/>
         <v>-3.1012575145461056E-5</v>
       </c>
-      <c r="E88" s="36">
+      <c r="E88" s="35">
         <f ca="1"/>
         <v>0.54600403024569355</v>
       </c>
-      <c r="F88" s="36">
+      <c r="F88" s="35">
         <f ca="1"/>
         <v>-0.34258261658880346</v>
       </c>
@@ -11948,11 +11991,11 @@
         <f ca="1"/>
         <v>1.7008459181341512E-4</v>
       </c>
-      <c r="E89" s="36">
+      <c r="E89" s="35">
         <f ca="1"/>
         <v>-1.0127879635451704</v>
       </c>
-      <c r="F89" s="36">
+      <c r="F89" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -11980,11 +12023,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E90" s="36">
+      <c r="E90" s="35">
         <f ca="1"/>
         <v>-0.6443462195582389</v>
       </c>
-      <c r="F90" s="36">
+      <c r="F90" s="35">
         <f ca="1"/>
         <v>-0.88233882723555157</v>
       </c>
@@ -12012,11 +12055,11 @@
         <f ca="1"/>
         <v>-2.7232917549611246E-4</v>
       </c>
-      <c r="E91" s="36">
+      <c r="E91" s="35">
         <f ca="1"/>
         <v>2.2465043871084545</v>
       </c>
-      <c r="F91" s="36">
+      <c r="F91" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -12044,11 +12087,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E92" s="36">
+      <c r="E92" s="35">
         <f ca="1"/>
         <v>-0.6443462195582389</v>
       </c>
-      <c r="F92" s="36">
+      <c r="F92" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -12076,11 +12119,11 @@
         <f ca="1"/>
         <v>1.7008459181341512E-4</v>
       </c>
-      <c r="E93" s="36">
+      <c r="E93" s="35">
         <f ca="1"/>
         <v>-0.87107960047327371</v>
       </c>
-      <c r="F93" s="36">
+      <c r="F93" s="35">
         <f ca="1"/>
         <v>-1.872889020075456E-2</v>
       </c>
@@ -12108,11 +12151,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E94" s="36">
+      <c r="E94" s="35">
         <f ca="1"/>
         <v>0.82942075638948698</v>
       </c>
-      <c r="F94" s="36">
+      <c r="F94" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -12140,11 +12183,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E95" s="36">
+      <c r="E95" s="35">
         <f ca="1"/>
         <v>0.20590395887314142</v>
       </c>
-      <c r="F95" s="36">
+      <c r="F95" s="35">
         <f ca="1"/>
         <v>-1.872889020075456E-2</v>
       </c>
@@ -12172,11 +12215,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E96" s="36">
+      <c r="E96" s="35">
         <f ca="1"/>
         <v>-0.44595451125758351</v>
       </c>
-      <c r="F96" s="36">
+      <c r="F96" s="35">
         <f ca="1"/>
         <v>1.8164422259981892</v>
       </c>
@@ -12204,11 +12247,11 @@
         <f ca="1"/>
         <v>-3.9298747567143813E-4</v>
       </c>
-      <c r="E97" s="36">
+      <c r="E97" s="35">
         <f ca="1"/>
         <v>4.2304214701150089</v>
       </c>
-      <c r="F97" s="36">
+      <c r="F97" s="35">
         <f ca="1"/>
         <v>0.95283228896339212</v>
       </c>
@@ -12236,11 +12279,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E98" s="36">
+      <c r="E98" s="35">
         <f ca="1"/>
         <v>0.26258730410190012</v>
       </c>
-      <c r="F98" s="36">
+      <c r="F98" s="35">
         <f ca="1"/>
         <v>0.73692980470469283</v>
       </c>
@@ -12268,11 +12311,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E99" s="36">
+      <c r="E99" s="35">
         <f ca="1"/>
         <v>-0.72937123740137699</v>
       </c>
-      <c r="F99" s="36">
+      <c r="F99" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -12300,11 +12343,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E100" s="36">
+      <c r="E100" s="35">
         <f ca="1"/>
         <v>-2.0829422041893343E-2</v>
       </c>
-      <c r="F100" s="36">
+      <c r="F100" s="35">
         <f ca="1"/>
         <v>0.73692980470469283</v>
       </c>
@@ -12332,11 +12375,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E101" s="36">
+      <c r="E101" s="35">
         <f ca="1"/>
         <v>-2.0829422041893343E-2</v>
       </c>
-      <c r="F101" s="36">
+      <c r="F101" s="35">
         <f ca="1"/>
         <v>-0.4505338587181531</v>
       </c>
@@ -12364,11 +12407,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E102" s="36">
+      <c r="E102" s="35">
         <f ca="1"/>
         <v>-0.6443462195582389</v>
       </c>
-      <c r="F102" s="36">
+      <c r="F102" s="35">
         <f ca="1"/>
         <v>-0.66643634297685239</v>
       </c>
@@ -12396,11 +12439,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E103" s="36">
+      <c r="E103" s="35">
         <f ca="1"/>
         <v>-0.72937123740137699</v>
       </c>
-      <c r="F103" s="36">
+      <c r="F103" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -12428,11 +12471,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E104" s="36">
+      <c r="E104" s="35">
         <f ca="1"/>
         <v>-0.30424614818568679</v>
       </c>
-      <c r="F104" s="36">
+      <c r="F104" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -12460,11 +12503,11 @@
         <f ca="1"/>
         <v>-3.5276804227966289E-4</v>
       </c>
-      <c r="E105" s="36">
+      <c r="E105" s="35">
         <f ca="1"/>
         <v>3.6635880178274216</v>
       </c>
-      <c r="F105" s="36">
+      <c r="F105" s="35">
         <f ca="1"/>
         <v>2.8959546472916857</v>
       </c>
@@ -12492,11 +12535,11 @@
         <f ca="1"/>
         <v>-1.1145144192901152E-4</v>
       </c>
-      <c r="E106" s="36">
+      <c r="E106" s="35">
         <f ca="1"/>
         <v>1.1128374825332805</v>
       </c>
-      <c r="F106" s="36">
+      <c r="F106" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -12524,11 +12567,11 @@
         <f ca="1"/>
         <v>1.7008459181341512E-4</v>
       </c>
-      <c r="E107" s="36">
+      <c r="E107" s="35">
         <f ca="1"/>
         <v>-0.87107960047327371</v>
       </c>
-      <c r="F107" s="36">
+      <c r="F107" s="35">
         <f ca="1"/>
         <v>1.276686015351441</v>
       </c>
@@ -12556,11 +12599,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E108" s="36">
+      <c r="E108" s="35">
         <f ca="1"/>
         <v>0.12087894103000338</v>
       </c>
-      <c r="F108" s="36">
+      <c r="F108" s="35">
         <f ca="1"/>
         <v>-0.55848510084750269</v>
       </c>
@@ -12588,11 +12631,11 @@
         <f ca="1"/>
         <v>-3.1012575145461056E-5</v>
       </c>
-      <c r="E109" s="36">
+      <c r="E109" s="35">
         <f ca="1"/>
         <v>0.82942075638948698</v>
       </c>
-      <c r="F109" s="36">
+      <c r="F109" s="35">
         <f ca="1"/>
         <v>-1.872889020075456E-2</v>
       </c>
@@ -12620,11 +12663,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E110" s="36">
+      <c r="E110" s="35">
         <f ca="1"/>
         <v>-2.0829422041893343E-2</v>
       </c>
-      <c r="F110" s="36">
+      <c r="F110" s="35">
         <f ca="1"/>
         <v>-0.66643634297685239</v>
       </c>
@@ -12652,11 +12695,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E111" s="36">
+      <c r="E111" s="35">
         <f ca="1"/>
         <v>-0.30424614818568679</v>
       </c>
-      <c r="F111" s="36">
+      <c r="F111" s="35">
         <f ca="1"/>
         <v>0.73692980470469283</v>
       </c>
@@ -12684,11 +12727,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E112" s="36">
+      <c r="E112" s="35">
         <f ca="1"/>
         <v>0.40429566717379684</v>
       </c>
-      <c r="F112" s="36">
+      <c r="F112" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -12716,11 +12759,11 @@
         <f ca="1"/>
         <v>1.7008459181341512E-4</v>
       </c>
-      <c r="E113" s="36">
+      <c r="E113" s="35">
         <f ca="1"/>
         <v>-0.87107960047327371</v>
       </c>
-      <c r="F113" s="36">
+      <c r="F113" s="35">
         <f ca="1"/>
         <v>1.8164422259981892</v>
       </c>
@@ -12748,11 +12791,11 @@
         <f ca="1"/>
         <v>-2.4441785786519748E-3</v>
       </c>
-      <c r="E114" s="36">
+      <c r="E114" s="35">
         <f ca="1"/>
         <v>-1.1544963266170671</v>
       </c>
-      <c r="F114" s="36">
+      <c r="F114" s="35">
         <f ca="1"/>
         <v>1.276686015351441</v>
       </c>
@@ -12780,11 +12823,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E115" s="36">
+      <c r="E115" s="35">
         <f ca="1"/>
         <v>-0.92776294570203244</v>
       </c>
-      <c r="F115" s="36">
+      <c r="F115" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -12812,11 +12855,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E116" s="36">
+      <c r="E116" s="35">
         <f ca="1"/>
         <v>-0.16253778511379008</v>
       </c>
-      <c r="F116" s="36">
+      <c r="F116" s="35">
         <f ca="1"/>
         <v>0.62897856257534324</v>
       </c>
@@ -12844,11 +12887,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E117" s="36">
+      <c r="E117" s="35">
         <f ca="1"/>
         <v>-0.44595451125758351</v>
       </c>
-      <c r="F117" s="36">
+      <c r="F117" s="35">
         <f ca="1"/>
         <v>-1.872889020075456E-2</v>
       </c>
@@ -12876,11 +12919,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E118" s="36">
+      <c r="E118" s="35">
         <f ca="1"/>
         <v>-0.30424614818568679</v>
       </c>
-      <c r="F118" s="36">
+      <c r="F118" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -12908,11 +12951,11 @@
         <f ca="1"/>
         <v>-2.7232917549611246E-4</v>
       </c>
-      <c r="E119" s="36">
+      <c r="E119" s="35">
         <f ca="1"/>
         <v>2.2465043871084545</v>
       </c>
-      <c r="F119" s="36">
+      <c r="F119" s="35">
         <f ca="1"/>
         <v>-0.34258261658880346</v>
       </c>
@@ -12940,11 +12983,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E120" s="36">
+      <c r="E120" s="35">
         <f ca="1"/>
         <v>-0.30424614818568679</v>
       </c>
-      <c r="F120" s="36">
+      <c r="F120" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -12972,11 +13015,11 @@
         <f ca="1"/>
         <v>-3.1012575145461056E-5</v>
       </c>
-      <c r="E121" s="36">
+      <c r="E121" s="35">
         <f ca="1"/>
         <v>0.82942075638948698</v>
       </c>
-      <c r="F121" s="36">
+      <c r="F121" s="35">
         <f ca="1"/>
         <v>2.8959546472916857</v>
       </c>
@@ -13004,11 +13047,11 @@
         <f ca="1"/>
         <v>-3.1012575145461056E-5</v>
       </c>
-      <c r="E122" s="36">
+      <c r="E122" s="35">
         <f ca="1"/>
         <v>0.26258730410190012</v>
       </c>
-      <c r="F122" s="36">
+      <c r="F122" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -13036,11 +13079,11 @@
         <f ca="1"/>
         <v>1.7008459181341512E-4</v>
       </c>
-      <c r="E123" s="36">
+      <c r="E123" s="35">
         <f ca="1"/>
         <v>-0.92776294570203244</v>
       </c>
-      <c r="F123" s="36">
+      <c r="F123" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -13068,11 +13111,11 @@
         <f ca="1"/>
         <v>-1.9189030871256198E-4</v>
       </c>
-      <c r="E124" s="36">
+      <c r="E124" s="35">
         <f ca="1"/>
         <v>1.6796709348208674</v>
       </c>
-      <c r="F124" s="36">
+      <c r="F124" s="35">
         <f ca="1"/>
         <v>0.62897856257534324</v>
       </c>
@@ -13100,11 +13143,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E125" s="36">
+      <c r="E125" s="35">
         <f ca="1"/>
         <v>-0.16253778511379008</v>
       </c>
-      <c r="F125" s="36">
+      <c r="F125" s="35">
         <f ca="1"/>
         <v>0.52102732044599354</v>
       </c>
@@ -13132,11 +13175,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E126" s="36">
+      <c r="E126" s="35">
         <f ca="1"/>
         <v>0.12087894103000338</v>
       </c>
-      <c r="F126" s="36">
+      <c r="F126" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -13164,11 +13207,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E127" s="36">
+      <c r="E127" s="35">
         <f ca="1"/>
         <v>-0.58766287432948028</v>
       </c>
-      <c r="F127" s="36">
+      <c r="F127" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -13196,11 +13239,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E128" s="36">
+      <c r="E128" s="35">
         <f ca="1"/>
         <v>-0.72937123740137699</v>
       </c>
-      <c r="F128" s="36">
+      <c r="F128" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -13228,11 +13271,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E129" s="36">
+      <c r="E129" s="35">
         <f ca="1"/>
         <v>-0.44595451125758351</v>
       </c>
-      <c r="F129" s="36">
+      <c r="F129" s="35">
         <f ca="1"/>
         <v>-1.872889020075456E-2</v>
       </c>
@@ -13260,11 +13303,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E130" s="36">
+      <c r="E130" s="35">
         <f ca="1"/>
         <v>-0.44595451125758351</v>
       </c>
-      <c r="F130" s="36">
+      <c r="F130" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -13292,11 +13335,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E131" s="36">
+      <c r="E131" s="35">
         <f ca="1"/>
         <v>-0.30424614818568679</v>
       </c>
-      <c r="F131" s="36">
+      <c r="F131" s="35">
         <f ca="1"/>
         <v>-0.34258261658880346</v>
       </c>
@@ -13324,11 +13367,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E132" s="36">
+      <c r="E132" s="35">
         <f ca="1"/>
         <v>-0.53097952910072155</v>
       </c>
-      <c r="F132" s="36">
+      <c r="F132" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -13356,11 +13399,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E133" s="36">
+      <c r="E133" s="35">
         <f ca="1"/>
         <v>-0.44595451125758351</v>
       </c>
-      <c r="F133" s="36">
+      <c r="F133" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -13388,11 +13431,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E134" s="36">
+      <c r="E134" s="35">
         <f ca="1"/>
         <v>0.12087894103000338</v>
       </c>
-      <c r="F134" s="36">
+      <c r="F134" s="35">
         <f ca="1"/>
         <v>3.0039058894210355</v>
       </c>
@@ -13420,11 +13463,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E135" s="36">
+      <c r="E135" s="35">
         <f ca="1"/>
         <v>-0.36092949341444547</v>
       </c>
-      <c r="F135" s="36">
+      <c r="F135" s="35">
         <f ca="1"/>
         <v>1.276686015351441</v>
       </c>
@@ -13452,11 +13495,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E136" s="36">
+      <c r="E136" s="35">
         <f ca="1"/>
         <v>-0.44595451125758351</v>
       </c>
-      <c r="F136" s="36">
+      <c r="F136" s="35">
         <f ca="1"/>
         <v>1.276686015351441</v>
       </c>
@@ -13484,11 +13527,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E137" s="36">
+      <c r="E137" s="35">
         <f ca="1"/>
         <v>-7.7512767270652039E-2</v>
       </c>
-      <c r="F137" s="36">
+      <c r="F137" s="35">
         <f ca="1"/>
         <v>-1.872889020075456E-2</v>
       </c>
@@ -13516,11 +13559,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E138" s="36">
+      <c r="E138" s="35">
         <f ca="1"/>
         <v>-0.72937123740137699</v>
       </c>
-      <c r="F138" s="36">
+      <c r="F138" s="35">
         <f ca="1"/>
         <v>1.276686015351441</v>
       </c>
@@ -13548,11 +13591,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E139" s="36">
+      <c r="E139" s="35">
         <f ca="1"/>
         <v>-0.58766287432948028</v>
       </c>
-      <c r="F139" s="36">
+      <c r="F139" s="35">
         <f ca="1"/>
         <v>-0.34258261658880346</v>
       </c>
@@ -13580,11 +13623,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E140" s="36">
+      <c r="E140" s="35">
         <f ca="1"/>
         <v>-0.58766287432948028</v>
       </c>
-      <c r="F140" s="36">
+      <c r="F140" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -13612,11 +13655,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E141" s="36">
+      <c r="E141" s="35">
         <f ca="1"/>
         <v>0.40429566717379684</v>
       </c>
-      <c r="F141" s="36">
+      <c r="F141" s="35">
         <f ca="1"/>
         <v>-0.34258261658880346</v>
       </c>
@@ -13644,11 +13687,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E142" s="36">
+      <c r="E142" s="35">
         <f ca="1"/>
         <v>-0.16253778511379008</v>
       </c>
-      <c r="F142" s="36">
+      <c r="F142" s="35">
         <f ca="1"/>
         <v>-0.34258261658880346</v>
       </c>
@@ -13676,11 +13719,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E143" s="36">
+      <c r="E143" s="35">
         <f ca="1"/>
         <v>-0.6443462195582389</v>
       </c>
-      <c r="F143" s="36">
+      <c r="F143" s="35">
         <f ca="1"/>
         <v>-0.66643634297685239</v>
       </c>
@@ -13708,11 +13751,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E144" s="36">
+      <c r="E144" s="35">
         <f ca="1"/>
         <v>-0.16253778511379008</v>
       </c>
-      <c r="F144" s="36">
+      <c r="F144" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -13740,11 +13783,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E145" s="36">
+      <c r="E145" s="35">
         <f ca="1"/>
         <v>-0.58766287432948028</v>
       </c>
-      <c r="F145" s="36">
+      <c r="F145" s="35">
         <f ca="1"/>
         <v>1.8164422259981892</v>
       </c>
@@ -13772,11 +13815,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E146" s="36">
+      <c r="E146" s="35">
         <f ca="1"/>
         <v>0.12087894103000338</v>
       </c>
-      <c r="F146" s="36">
+      <c r="F146" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -13804,11 +13847,11 @@
         <f ca="1"/>
         <v>-3.9298747567143813E-4</v>
       </c>
-      <c r="E147" s="36">
+      <c r="E147" s="35">
         <f ca="1"/>
         <v>3.947004743971215</v>
       </c>
-      <c r="F147" s="36">
+      <c r="F147" s="35">
         <f ca="1"/>
         <v>-0.55848510084750269</v>
       </c>
@@ -13836,11 +13879,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E148" s="36">
+      <c r="E148" s="35">
         <f ca="1"/>
         <v>-0.78605458263013572</v>
       </c>
-      <c r="F148" s="36">
+      <c r="F148" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -13868,11 +13911,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E149" s="36">
+      <c r="E149" s="35">
         <f ca="1"/>
         <v>-0.24756280295692812</v>
       </c>
-      <c r="F149" s="36">
+      <c r="F149" s="35">
         <f ca="1"/>
         <v>1.8164422259981892</v>
       </c>
@@ -13900,11 +13943,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E150" s="36">
+      <c r="E150" s="35">
         <f ca="1"/>
         <v>0.26258730410190012</v>
       </c>
-      <c r="F150" s="36">
+      <c r="F150" s="35">
         <f ca="1"/>
         <v>0.73692980470469283</v>
       </c>
@@ -13932,11 +13975,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E151" s="36">
+      <c r="E151" s="35">
         <f ca="1"/>
         <v>-0.36092949341444547</v>
       </c>
-      <c r="F151" s="36">
+      <c r="F151" s="35">
         <f ca="1"/>
         <v>-0.34258261658880346</v>
       </c>
@@ -13964,11 +14007,11 @@
         <f ca="1"/>
         <v>1.7008459181341512E-4</v>
       </c>
-      <c r="E152" s="36">
+      <c r="E152" s="35">
         <f ca="1"/>
         <v>-0.87107960047327371</v>
       </c>
-      <c r="F152" s="36">
+      <c r="F152" s="35">
         <f ca="1"/>
         <v>-1.872889020075456E-2</v>
       </c>
@@ -13996,11 +14039,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E153" s="36">
+      <c r="E153" s="35">
         <f ca="1"/>
         <v>-2.0829422041893343E-2</v>
       </c>
-      <c r="F153" s="36">
+      <c r="F153" s="35">
         <f ca="1"/>
         <v>-0.66643634297685239</v>
       </c>
@@ -14028,11 +14071,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E154" s="36">
+      <c r="E154" s="35">
         <f ca="1"/>
         <v>-0.70102956478699763</v>
       </c>
-      <c r="F154" s="36">
+      <c r="F154" s="35">
         <f ca="1"/>
         <v>-0.88233882723555157</v>
       </c>
@@ -14060,11 +14103,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E155" s="36">
+      <c r="E155" s="35">
         <f ca="1"/>
         <v>-0.24756280295692812</v>
       </c>
-      <c r="F155" s="36">
+      <c r="F155" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -14092,11 +14135,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E156" s="36">
+      <c r="E156" s="35">
         <f ca="1"/>
         <v>-0.44595451125758351</v>
       </c>
-      <c r="F156" s="36">
+      <c r="F156" s="35">
         <f ca="1"/>
         <v>4.0834183107145314</v>
       </c>
@@ -14124,11 +14167,11 @@
         <f ca="1"/>
         <v>1.7008459181341512E-4</v>
       </c>
-      <c r="E157" s="36">
+      <c r="E157" s="35">
         <f ca="1"/>
         <v>-0.87107960047327371</v>
       </c>
-      <c r="F157" s="36">
+      <c r="F157" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -14156,11 +14199,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E158" s="36">
+      <c r="E158" s="35">
         <f ca="1"/>
         <v>-2.0829422041893343E-2</v>
       </c>
-      <c r="F158" s="36">
+      <c r="F158" s="35">
         <f ca="1"/>
         <v>0.73692980470469283</v>
       </c>
@@ -14188,11 +14231,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E159" s="36">
+      <c r="E159" s="35">
         <f ca="1"/>
         <v>-0.58766287432948028</v>
       </c>
-      <c r="F159" s="36">
+      <c r="F159" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -14220,11 +14263,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E160" s="36">
+      <c r="E160" s="35">
         <f ca="1"/>
         <v>-2.0829422041893343E-2</v>
       </c>
-      <c r="F160" s="36">
+      <c r="F160" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -14252,11 +14295,11 @@
         <f ca="1"/>
         <v>-3.1012575145461056E-5</v>
       </c>
-      <c r="E161" s="36">
+      <c r="E161" s="35">
         <f ca="1"/>
         <v>0.68771239331759026</v>
       </c>
-      <c r="F161" s="36">
+      <c r="F161" s="35">
         <f ca="1"/>
         <v>-0.55848510084750269</v>
       </c>
@@ -14284,11 +14327,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E162" s="36">
+      <c r="E162" s="35">
         <f ca="1"/>
         <v>0.40429566717379684</v>
       </c>
-      <c r="F162" s="36">
+      <c r="F162" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -14316,11 +14359,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E163" s="36">
+      <c r="E163" s="35">
         <f ca="1"/>
         <v>-0.36092949341444547</v>
       </c>
-      <c r="F163" s="36">
+      <c r="F163" s="35">
         <f ca="1"/>
         <v>0.19717359405794471</v>
       </c>
@@ -14348,11 +14391,11 @@
         <f ca="1"/>
         <v>9.2068582463141792E-6</v>
       </c>
-      <c r="E164" s="36">
+      <c r="E164" s="35">
         <f ca="1"/>
         <v>0.12087894103000338</v>
       </c>
-      <c r="F164" s="36">
+      <c r="F164" s="35">
         <f ca="1"/>
         <v>1.0607835310927418</v>
       </c>
@@ -14380,11 +14423,11 @@
         <f ca="1"/>
         <v>8.964572502986465E-5</v>
       </c>
-      <c r="E165" s="36">
+      <c r="E165" s="35">
         <f ca="1"/>
         <v>-0.81439625524451498</v>
       </c>
-      <c r="F165" s="36">
+      <c r="F165" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -14412,11 +14455,11 @@
         <f ca="1"/>
         <v>1.2986515842163988E-4</v>
       </c>
-      <c r="E166" s="36">
+      <c r="E166" s="35">
         <f ca="1"/>
         <v>-0.89942127308765307</v>
       </c>
-      <c r="F166" s="36">
+      <c r="F166" s="35">
         <f ca="1"/>
         <v>-1.2493730504753404</v>
       </c>
@@ -14444,11 +14487,11 @@
         <f ca="1"/>
         <v>4.9426291638089415E-5</v>
       </c>
-      <c r="E167" s="37">
+      <c r="E167" s="36">
         <f ca="1"/>
         <v>-0.16253778511379008</v>
       </c>
-      <c r="F167" s="37">
+      <c r="F167" s="36">
         <f ca="1"/>
         <v>1.8164422259981892</v>
       </c>
@@ -14473,8 +14516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A81F62E-2772-45A0-9521-47F4509C7F01}">
   <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -14601,19 +14644,18 @@
         <v>183</v>
       </c>
       <c r="L3" s="10">
-        <f ca="1">CORREL(INDIRECT(L$2),INDIRECT($K3))</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="M3" s="10">
-        <f t="shared" ref="M3:O6" ca="1" si="0">CORREL(INDIRECT(M$2),INDIRECT($K3))</f>
+        <f>CORREL(年式,走行)</f>
         <v>-0.37099424523199714</v>
       </c>
       <c r="N3" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f>CORREL(年式,排気量)</f>
         <v>-0.11226327864545012</v>
       </c>
       <c r="O3" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f>CORREL(年式,本体価格)</f>
         <v>-0.27882362237771718</v>
       </c>
     </row>
@@ -14649,19 +14691,18 @@
         <v>184</v>
       </c>
       <c r="L4" s="10">
-        <f t="shared" ref="L4:L6" ca="1" si="1">CORREL(INDIRECT(L$2),INDIRECT($K4))</f>
+        <f>M3</f>
         <v>-0.37099424523199714</v>
       </c>
       <c r="M4" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="N4" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f>CORREL(走行,排気量)</f>
         <v>0.12296010052085722</v>
       </c>
       <c r="O4" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f>CORREL(走行,本体価格)</f>
         <v>-0.38752863681060762</v>
       </c>
     </row>
@@ -14697,19 +14738,18 @@
         <v>180</v>
       </c>
       <c r="L5" s="10">
-        <f t="shared" ca="1" si="1"/>
+        <f>N3</f>
         <v>-0.11226327864545012</v>
       </c>
       <c r="M5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f>N4</f>
         <v>0.12296010052085722</v>
       </c>
       <c r="N5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="O5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f>CORREL(排気量,本体価格)</f>
         <v>0.51690515183963759</v>
       </c>
     </row>
@@ -14745,19 +14785,18 @@
         <v>181</v>
       </c>
       <c r="L6" s="13">
-        <f t="shared" ca="1" si="1"/>
+        <f>O3</f>
         <v>-0.27882362237771718</v>
       </c>
       <c r="M6" s="13">
-        <f t="shared" ca="1" si="0"/>
+        <f>O4</f>
         <v>-0.38752863681060762</v>
       </c>
       <c r="N6" s="13">
-        <f t="shared" ca="1" si="0"/>
+        <f>O5</f>
         <v>0.51690515183963759</v>
       </c>
       <c r="O6" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -14942,7 +14981,7 @@
         <v>120</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="L11">
         <v>5.0415904602941694E-3</v>
@@ -14957,7 +14996,7 @@
         <v>1362.9319349585887</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:15" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -14986,7 +15025,7 @@
         <v>100</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="L12">
         <v>0.64603472598953238</v>
@@ -15030,7 +15069,7 @@
         <v>240</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L13">
         <v>98.557338148383153</v>
@@ -15074,7 +15113,7 @@
         <v>80</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L14" s="1">
         <v>1048828.9441665888</v>
@@ -15189,7 +15228,7 @@
         <v>120</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L17" s="19">
         <v>2018</v>
@@ -15262,11 +15301,11 @@
       <c r="I19" s="2">
         <v>150</v>
       </c>
-      <c r="K19" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="L19" s="42" t="s">
-        <v>209</v>
+      <c r="K19" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="L19" s="41" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.7">
@@ -15334,8 +15373,8 @@
       <c r="I21" s="2">
         <v>170</v>
       </c>
-      <c r="K21" s="43" t="s">
-        <v>206</v>
+      <c r="K21" s="42" t="s">
+        <v>204</v>
       </c>
       <c r="L21" s="29"/>
     </row>
@@ -15367,7 +15406,7 @@
       <c r="I22" s="2">
         <v>300</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="38">
         <f>SQRT(M14/K20)</f>
         <v>58.837022277313679</v>
       </c>
@@ -15430,7 +15469,7 @@
         <v>100</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L24" s="29"/>
     </row>
@@ -15462,11 +15501,11 @@
       <c r="I25" s="2">
         <v>75</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="39">
         <f>1-(1-L12)*(K20-1)/(K20-L20-1)</f>
         <v>0.63947981350785699</v>
       </c>
-      <c r="L25" s="41"/>
+      <c r="L25" s="40"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A26" t="s">
@@ -15526,7 +15565,7 @@
         <v>35</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
@@ -15591,7 +15630,7 @@
         <v>250</v>
       </c>
       <c r="K29" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.7">
@@ -15627,7 +15666,7 @@
         <v>2.4048329569557036E-36</v>
       </c>
       <c r="L30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.7">
@@ -15688,7 +15727,7 @@
         <v>150</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L32" s="31" t="s">
         <v>180</v>
@@ -15775,7 +15814,7 @@
         <v>220</v>
       </c>
       <c r="L34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.7">
@@ -25022,7 +25061,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B54BE7-F3F8-4ACB-85DD-FA1D6107EF0A}">
-  <dimension ref="A1:O167"/>
+  <dimension ref="A1:P167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -25512,7 +25551,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -25543,7 +25582,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -25572,7 +25611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -25607,8 +25646,9 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.7">
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -25638,19 +25678,22 @@
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="N20" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="O20" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="P20" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -25682,7 +25725,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -25711,10 +25754,10 @@
         <v>300</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.7">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -25743,10 +25786,10 @@
         <v>25</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -25775,10 +25818,10 @@
         <v>100</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -25807,14 +25850,15 @@
         <v>75</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.7">
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -25843,7 +25887,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -25871,14 +25915,14 @@
       <c r="I27" s="2">
         <v>35</v>
       </c>
-      <c r="K27" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="L27" s="42" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.7">
+      <c r="K27" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -25909,7 +25953,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -25937,12 +25981,12 @@
       <c r="I29" s="2">
         <v>250</v>
       </c>
-      <c r="K29" s="43" t="s">
-        <v>206</v>
+      <c r="K29" s="42" t="s">
+        <v>204</v>
       </c>
       <c r="L29" s="29"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -25970,9 +26014,9 @@
       <c r="I30" s="2">
         <v>90</v>
       </c>
-      <c r="K30" s="39"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.7">
+      <c r="K30" s="38"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -26001,7 +26045,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -26030,7 +26074,7 @@
         <v>150</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L32" s="29"/>
     </row>
@@ -26062,8 +26106,8 @@
       <c r="I33" s="2">
         <v>30</v>
       </c>
-      <c r="K33" s="40"/>
-      <c r="L33" s="41"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="40"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A34" t="s">
@@ -30699,7 +30743,7 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="35"/>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A20" t="s">
@@ -30832,7 +30876,7 @@
         <v>300</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="M22">
         <v>12.134489963442007</v>
@@ -30850,7 +30894,7 @@
         <v>1079.0751640081351</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -30882,7 +30926,7 @@
         <v>25</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="M23">
         <v>0.78607070966460146</v>
@@ -30932,7 +30976,7 @@
         <v>100</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M24">
         <v>147.89627925374793</v>
@@ -30982,7 +31026,7 @@
         <v>75</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M25" s="1">
         <v>1276175.5356029633</v>
@@ -31063,11 +31107,11 @@
       <c r="J27" s="2">
         <v>35</v>
       </c>
-      <c r="L27" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="M27" s="42" t="s">
-        <v>209</v>
+      <c r="L27" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="M27" s="41" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.7">
@@ -31141,8 +31185,8 @@
       <c r="J29" s="2">
         <v>250</v>
       </c>
-      <c r="L29" s="43" t="s">
-        <v>206</v>
+      <c r="L29" s="42" t="s">
+        <v>204</v>
       </c>
       <c r="M29" s="29"/>
     </row>
@@ -31177,7 +31221,7 @@
       <c r="J30" s="2">
         <v>90</v>
       </c>
-      <c r="L30" s="39">
+      <c r="L30" s="38">
         <f>SQRT(N25/L28)</f>
         <v>45.740981742021127</v>
       </c>
@@ -31246,7 +31290,7 @@
         <v>150</v>
       </c>
       <c r="L32" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M32" s="29"/>
     </row>
@@ -31281,11 +31325,11 @@
       <c r="J33" s="2">
         <v>30</v>
       </c>
-      <c r="L33" s="40">
+      <c r="L33" s="39">
         <f>1-(1-M23)*(L28-1)/(L28-M28-1)</f>
         <v>0.78075569624011953</v>
       </c>
-      <c r="M33" s="41"/>
+      <c r="M33" s="40"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A34" t="s">
@@ -35650,7 +35694,7 @@
         <v>188</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.7">
@@ -36495,10 +36539,10 @@
       </c>
       <c r="N20" s="11"/>
       <c r="O20" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>188</v>
@@ -36617,7 +36661,7 @@
         <v>300</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="O22">
         <v>13.208570150165622</v>
@@ -36641,7 +36685,7 @@
         <v>1155.3487238107282</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:21" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -36679,7 +36723,7 @@
         <v>25</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="O23">
         <v>0.78675317068580641</v>
@@ -36741,7 +36785,7 @@
         <v>100</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O24">
         <v>97.769139593890202</v>
@@ -36803,7 +36847,7 @@
         <v>75</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O25" s="1">
         <v>1277283.5021618954</v>
@@ -36902,11 +36946,11 @@
       <c r="L27" s="2">
         <v>35</v>
       </c>
-      <c r="N27" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="O27" s="42" t="s">
-        <v>209</v>
+      <c r="N27" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="O27" s="41" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.7">
@@ -36992,8 +37036,8 @@
       <c r="L29" s="2">
         <v>250</v>
       </c>
-      <c r="N29" s="43" t="s">
-        <v>206</v>
+      <c r="N29" s="42" t="s">
+        <v>204</v>
       </c>
       <c r="O29" s="29"/>
     </row>
@@ -37034,7 +37078,7 @@
       <c r="L30" s="2">
         <v>90</v>
       </c>
-      <c r="N30" s="39">
+      <c r="N30" s="38">
         <f>SQRT(P25/N28)</f>
         <v>45.66796375339004</v>
       </c>
@@ -37115,7 +37159,7 @@
         <v>150</v>
       </c>
       <c r="N32" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O32" s="29"/>
     </row>
@@ -37156,11 +37200,11 @@
       <c r="L33" s="2">
         <v>30</v>
       </c>
-      <c r="N33" s="40">
+      <c r="N33" s="39">
         <f>1-(1-O23)*(N28-1)/(N28-O28-1)</f>
         <v>0.77870612052300658</v>
       </c>
-      <c r="O33" s="41"/>
+      <c r="O33" s="40"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A34" t="s">
@@ -42319,7 +42363,7 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="Q1" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
@@ -42721,8 +42765,8 @@
       <c r="I9" s="2">
         <v>450</v>
       </c>
-      <c r="L9" s="46" t="s">
-        <v>229</v>
+      <c r="L9" s="45" t="s">
+        <v>227</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -42756,13 +42800,13 @@
         <v>85</v>
       </c>
       <c r="L10" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="N10" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.7">
@@ -43019,7 +43063,7 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -43052,24 +43096,24 @@
       <c r="I18" s="2">
         <v>28</v>
       </c>
-      <c r="L18" s="47"/>
+      <c r="L18" s="46"/>
       <c r="M18" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="O18" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="N18" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="O18" s="17" t="s">
-        <v>228</v>
-      </c>
       <c r="Q18" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="S18" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="R18" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="S18" s="17" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.7">
@@ -43101,7 +43145,7 @@
         <v>150</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -43154,7 +43198,7 @@
         <v>76</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M20">
         <f>N19</f>
@@ -43206,7 +43250,7 @@
         <v>170</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M21" s="1">
         <f>O19</f>
@@ -43287,7 +43331,7 @@
         <v>25</v>
       </c>
       <c r="Q23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.7">
@@ -47494,19 +47538,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>195</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
@@ -47519,10 +47563,10 @@
         <v>30</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
@@ -47530,17 +47574,17 @@
         <v>20</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D3" s="22" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDIRECT(C3)</f>
         <v>30</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
@@ -47553,25 +47597,25 @@
         <v>60</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="54.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C5" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D5" s="22">
         <f ca="1">SUM(A2:INDIRECT(C5))</f>
         <v>60</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.7">
@@ -47588,7 +47632,7 @@
   <dimension ref="A1:T163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -47681,8 +47725,8 @@
       <c r="O2" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="Q2" s="45" t="s">
-        <v>223</v>
+      <c r="Q2" s="44" t="s">
+        <v>221</v>
       </c>
       <c r="S2" s="14"/>
       <c r="T2" s="14"/>
@@ -47715,7 +47759,7 @@
       <c r="I3" s="2">
         <v>170</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="43" t="s">
         <v>183</v>
       </c>
       <c r="L3" s="10">
@@ -47734,8 +47778,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>0.49096600970122645</v>
       </c>
-      <c r="Q3" s="45" t="s">
-        <v>224</v>
+      <c r="Q3" s="44" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.7">
@@ -48063,7 +48107,7 @@
         <v>100</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="L11">
         <v>5.0689185380024806E-3</v>
@@ -48078,7 +48122,7 @@
         <v>13113.791796520103</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:20" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -48107,7 +48151,7 @@
         <v>240</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="L12">
         <v>0.64366607119754993</v>
@@ -48151,7 +48195,7 @@
         <v>80</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L13">
         <v>95.134770158802823</v>
@@ -48195,7 +48239,7 @@
         <v>28</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L14" s="1">
         <v>791366.47565760033</v>
@@ -48310,7 +48354,7 @@
         <v>28</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L17" s="19">
         <v>2018</v>
@@ -48383,11 +48427,11 @@
       <c r="I19" s="2">
         <v>76</v>
       </c>
-      <c r="K19" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="L19" s="42" t="s">
-        <v>209</v>
+      <c r="K19" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="L19" s="41" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.7">
@@ -48455,8 +48499,8 @@
       <c r="I21" s="2">
         <v>25</v>
       </c>
-      <c r="K21" s="43" t="s">
-        <v>206</v>
+      <c r="K21" s="42" t="s">
+        <v>204</v>
       </c>
       <c r="L21" s="29"/>
     </row>
@@ -48488,7 +48532,7 @@
       <c r="I22" s="2">
         <v>100</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="38">
         <f>SQRT(M14/K20)</f>
         <v>52.003143459949413</v>
       </c>
@@ -48551,7 +48595,7 @@
         <v>270</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L24" s="29"/>
     </row>
@@ -48583,11 +48627,11 @@
       <c r="I25" s="2">
         <v>35</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="39">
         <f>1-(1-L12)*(K20-1)/(K20-L20-1)</f>
         <v>0.63690023710636412</v>
       </c>
-      <c r="L25" s="41"/>
+      <c r="L25" s="40"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A26" t="s">

--- a/15a.xlsx
+++ b/15a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DC7570-6506-4DD6-9C5F-8068CE3D2BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84828ECE-ACC8-4FE8-94B1-4F9DBCABE1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="1500" windowWidth="28800" windowHeight="16200" activeTab="1" xr2:uid="{43A727E7-E0DD-4276-BE22-A0C497C034AF}"/>
+    <workbookView xWindow="4500" yWindow="1500" windowWidth="28800" windowHeight="16200" xr2:uid="{43A727E7-E0DD-4276-BE22-A0C497C034AF}"/>
   </bookViews>
   <sheets>
     <sheet name="中古車価格" sheetId="1" r:id="rId1"/>
@@ -3849,7 +3849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CC015B-A697-429A-8F6D-46EC0D99698E}">
   <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -14516,7 +14516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A81F62E-2772-45A0-9521-47F4509C7F01}">
   <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -30670,7 +30670,7 @@
         <v>メルセデス・ベンツ</v>
       </c>
       <c r="M17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.7">
@@ -30829,19 +30829,19 @@
       </c>
       <c r="M21" cm="1">
         <f t="array" ref="M21:Q25">LINEST(J2:J167,_xlfn.HSTACK(説明変数1,説明変数2),TRUE,TRUE)</f>
-        <v>124.57163447948328</v>
+        <v>132.37198253585441</v>
       </c>
       <c r="N21">
-        <v>4.8887270838306796E-2</v>
+        <v>4.6584271900122619E-2</v>
       </c>
       <c r="O21">
-        <v>-1.5421655381703855E-3</v>
+        <v>-1.4052625510387773E-3</v>
       </c>
       <c r="P21">
-        <v>-5.0427112135929661</v>
+        <v>-3.9561665378620772</v>
       </c>
       <c r="Q21">
-        <v>10290.858179189103</v>
+        <v>8093.8369217383324</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.7">
@@ -30879,19 +30879,19 @@
         <v>229</v>
       </c>
       <c r="M22">
-        <v>12.134489963442007</v>
+        <v>10.838134719304122</v>
       </c>
       <c r="N22">
-        <v>4.0296570661764305E-3</v>
+        <v>3.7606878277962664E-3</v>
       </c>
       <c r="O22">
-        <v>1.1210533835055078E-4</v>
+        <v>1.0594738672985262E-4</v>
       </c>
       <c r="P22">
-        <v>0.5339946591216993</v>
+        <v>0.51507285956927473</v>
       </c>
       <c r="Q22">
-        <v>1079.0751640081351</v>
+        <v>1040.9015573248496</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19.149999999999999" x14ac:dyDescent="0.7">
@@ -30929,10 +30929,10 @@
         <v>230</v>
       </c>
       <c r="M23">
-        <v>0.78607070966460146</v>
+        <v>0.81626749771388663</v>
       </c>
       <c r="N23">
-        <v>46.445814965690261</v>
+        <v>43.043190715157913</v>
       </c>
       <c r="O23" t="e">
         <v>#N/A</v>
@@ -30979,7 +30979,7 @@
         <v>208</v>
       </c>
       <c r="M24">
-        <v>147.89627925374793</v>
+        <v>178.8184799868539</v>
       </c>
       <c r="N24">
         <v>161</v>
@@ -31029,10 +31029,10 @@
         <v>209</v>
       </c>
       <c r="M25" s="1">
-        <v>1276175.5356029633</v>
+        <v>1325199.6268055579</v>
       </c>
       <c r="N25" s="1">
-        <v>347311.4101801691</v>
+        <v>298287.31897757447</v>
       </c>
       <c r="O25" s="1" t="e">
         <v>#N/A</v>
@@ -31223,7 +31223,7 @@
       </c>
       <c r="L30" s="38">
         <f>SQRT(N25/L28)</f>
-        <v>45.740981742021127</v>
+        <v>42.389993631821532</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.7">
@@ -31327,7 +31327,7 @@
       </c>
       <c r="L33" s="39">
         <f>1-(1-M23)*(L28-1)/(L28-M28-1)</f>
-        <v>0.78075569624011953</v>
+        <v>0.81170271504839309</v>
       </c>
       <c r="M33" s="40"/>
     </row>
@@ -32520,7 +32520,7 @@
         <v>112</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="s">
         <v>113</v>
@@ -33896,7 +33896,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="s">
         <v>140</v>
@@ -35048,7 +35048,7 @@
         <v>112</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="s">
         <v>165</v>
@@ -35208,7 +35208,7 @@
         <v>112</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="s">
         <v>167</v>
@@ -36411,7 +36411,7 @@
         <v>メルセデス・ベンツ</v>
       </c>
       <c r="O17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.7">
@@ -36602,25 +36602,25 @@
       </c>
       <c r="O21" cm="1">
         <f t="array" ref="O21:U25">LINEST(L2:L167,_xlfn.HSTACK(説明変数1,説明変数2,説明変数3),TRUE,TRUE)</f>
-        <v>2.0009769959894927</v>
+        <v>-16.006103265188944</v>
       </c>
       <c r="P21">
-        <v>-5.1314259979905179</v>
+        <v>-5.206789227783803</v>
       </c>
       <c r="Q21">
-        <v>120.86183903067217</v>
+        <v>140.47657251200135</v>
       </c>
       <c r="R21">
-        <v>4.744927703927028E-2</v>
+        <v>4.8722836319904386E-2</v>
       </c>
       <c r="S21">
-        <v>-1.5471161535984901E-3</v>
+        <v>-1.3807791581780006E-3</v>
       </c>
       <c r="T21">
-        <v>-5.0489571356733629</v>
+        <v>-3.6553992900432073</v>
       </c>
       <c r="U21">
-        <v>10309.004736871062</v>
+        <v>7488.6773325828599</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.7">
@@ -36664,25 +36664,25 @@
         <v>229</v>
       </c>
       <c r="O22">
-        <v>13.208570150165622</v>
+        <v>12.644227387695182</v>
       </c>
       <c r="P22">
-        <v>10.599589613180221</v>
+        <v>9.7861974590070737</v>
       </c>
       <c r="Q22">
-        <v>13.856301580196934</v>
+        <v>13.005736921789874</v>
       </c>
       <c r="R22">
-        <v>4.6670543343613896E-3</v>
+        <v>4.3160867527331096E-3</v>
       </c>
       <c r="S22">
-        <v>1.1333191782903577E-4</v>
+        <v>1.0793857083057878E-4</v>
       </c>
       <c r="T22">
-        <v>0.57266885485816743</v>
+        <v>0.56747326638097484</v>
       </c>
       <c r="U22">
-        <v>1155.3487238107282</v>
+        <v>1145.4703164544917</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="19.149999999999999" x14ac:dyDescent="0.7">
@@ -36726,10 +36726,10 @@
         <v>230</v>
       </c>
       <c r="O23">
-        <v>0.78675317068580641</v>
+        <v>0.81814633127022118</v>
       </c>
       <c r="P23">
-        <v>46.66240615914743</v>
+        <v>43.091029668559109</v>
       </c>
       <c r="Q23" t="e">
         <v>#N/A</v>
@@ -36788,7 +36788,7 @@
         <v>208</v>
       </c>
       <c r="O24">
-        <v>97.769139593890202</v>
+        <v>119.22155835567476</v>
       </c>
       <c r="P24">
         <v>159</v>
@@ -36850,10 +36850,10 @@
         <v>209</v>
       </c>
       <c r="O25" s="1">
-        <v>1277283.5021618954</v>
+        <v>1328249.8885575663</v>
       </c>
       <c r="P25" s="1">
-        <v>346203.44362123712</v>
+        <v>295237.05722556601</v>
       </c>
       <c r="Q25" s="1" t="e">
         <v>#N/A</v>
@@ -37080,7 +37080,7 @@
       </c>
       <c r="N30" s="38">
         <f>SQRT(P25/N28)</f>
-        <v>45.66796375339004</v>
+        <v>42.172698387827147</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.7">
@@ -37202,7 +37202,7 @@
       </c>
       <c r="N33" s="39">
         <f>1-(1-O23)*(N28-1)/(N28-O28-1)</f>
-        <v>0.77870612052300658</v>
+        <v>0.81128392867664467</v>
       </c>
       <c r="O33" s="40"/>
     </row>
@@ -38617,7 +38617,7 @@
         <v>112</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="s">
         <v>113</v>
@@ -40251,7 +40251,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="s">
         <v>140</v>
@@ -41619,7 +41619,7 @@
         <v>112</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="s">
         <v>165</v>
@@ -41809,7 +41809,7 @@
         <v>112</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="s">
         <v>167</v>
